--- a/sql/poets_cities.xlsx
+++ b/sql/poets_cities.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="poets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="city lookup" sheetId="3" r:id="rId3"/>
+    <sheet name="poets lookup" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="265">
   <si>
     <t>Melanippides</t>
   </si>
@@ -434,6 +436,390 @@
   </si>
   <si>
     <t>Argos</t>
+  </si>
+  <si>
+    <t>Alcaeus</t>
+  </si>
+  <si>
+    <t>Alcman</t>
+  </si>
+  <si>
+    <t>Anacreon</t>
+  </si>
+  <si>
+    <t>Ananius</t>
+  </si>
+  <si>
+    <t>Apollodorus</t>
+  </si>
+  <si>
+    <t>Archilochus</t>
+  </si>
+  <si>
+    <t>Arion</t>
+  </si>
+  <si>
+    <t>Asius</t>
+  </si>
+  <si>
+    <t>Bacchylides</t>
+  </si>
+  <si>
+    <t>Callinus</t>
+  </si>
+  <si>
+    <t>Cedeides</t>
+  </si>
+  <si>
+    <t>Charixena</t>
+  </si>
+  <si>
+    <t>Corinna</t>
+  </si>
+  <si>
+    <t>Critias</t>
+  </si>
+  <si>
+    <t>Cydias</t>
+  </si>
+  <si>
+    <t>Demodocus</t>
+  </si>
+  <si>
+    <t>Dionysius Chalkus</t>
+  </si>
+  <si>
+    <t>Echembrotus</t>
+  </si>
+  <si>
+    <t>Eunicus</t>
+  </si>
+  <si>
+    <t>Euripides</t>
+  </si>
+  <si>
+    <t>Hermippus</t>
+  </si>
+  <si>
+    <t>Hipponax</t>
+  </si>
+  <si>
+    <t>Ibycus</t>
+  </si>
+  <si>
+    <t>Lamprocles</t>
+  </si>
+  <si>
+    <t>Lamprus</t>
+  </si>
+  <si>
+    <t>Lasus</t>
+  </si>
+  <si>
+    <t>Mimnermus</t>
+  </si>
+  <si>
+    <t>Myrtis</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Panarces</t>
+  </si>
+  <si>
+    <t>Philiadas</t>
+  </si>
+  <si>
+    <t>Phocylides</t>
+  </si>
+  <si>
+    <t>Polymnestus</t>
+  </si>
+  <si>
+    <t>Pratinas</t>
+  </si>
+  <si>
+    <t>Sacadas</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>Scythinus</t>
+  </si>
+  <si>
+    <t>Semonides</t>
+  </si>
+  <si>
+    <t>Simonides</t>
+  </si>
+  <si>
+    <t>Solon</t>
+  </si>
+  <si>
+    <t>Sophocles</t>
+  </si>
+  <si>
+    <t>Stesichorus</t>
+  </si>
+  <si>
+    <t>Susarion</t>
+  </si>
+  <si>
+    <t>Telesilla</t>
+  </si>
+  <si>
+    <t>Terpander</t>
+  </si>
+  <si>
+    <t>Thaletas/Thales</t>
+  </si>
+  <si>
+    <t>Theognis</t>
+  </si>
+  <si>
+    <t>Timocreon</t>
+  </si>
+  <si>
+    <t>Tyrtaeus</t>
+  </si>
+  <si>
+    <t>Tynnichus</t>
+  </si>
+  <si>
+    <t>Xanthus</t>
+  </si>
+  <si>
+    <t>Xenophanes (not the Lesbian iambic poet)</t>
+  </si>
+  <si>
+    <t>Methymna</t>
+  </si>
+  <si>
+    <t>Leros</t>
+  </si>
+  <si>
+    <t>Corinth</t>
+  </si>
+  <si>
+    <t>Anthedon</t>
+  </si>
+  <si>
+    <t>Gortyn</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>Lesbian Mytilene</t>
+  </si>
+  <si>
+    <t>Soli (Soloi/Pompeiopolis)</t>
+  </si>
+  <si>
+    <t>Dionysius of Chios</t>
+  </si>
+  <si>
+    <t>Dionysius of Thebes</t>
+  </si>
+  <si>
+    <t>Diphilos</t>
+  </si>
+  <si>
+    <t>Eumelos #2</t>
+  </si>
+  <si>
+    <t>Eumelos #1</t>
+  </si>
+  <si>
+    <t>Euneidai</t>
+  </si>
+  <si>
+    <t>Ion of Chios</t>
+  </si>
+  <si>
+    <t>Ion of Samos</t>
+  </si>
+  <si>
+    <t>Karkinos</t>
+  </si>
+  <si>
+    <t>Leotrophides</t>
+  </si>
+  <si>
+    <t>Oenopas</t>
+  </si>
+  <si>
+    <t>Pankrates</t>
+  </si>
+  <si>
+    <t>Phrynichos</t>
+  </si>
+  <si>
+    <t>Timonides</t>
+  </si>
+  <si>
+    <t>Xenokrates</t>
+  </si>
+  <si>
+    <t>Xenophanes</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ionia</t>
+  </si>
+  <si>
+    <t>Tanagra</t>
+  </si>
+  <si>
+    <t>(an island and likely a mistake)</t>
+  </si>
+  <si>
+    <t>Arne</t>
+  </si>
+  <si>
+    <t>Messoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (no location in Pleades)</t>
+  </si>
+  <si>
+    <t>Ioulis (Ceos)</t>
+  </si>
+  <si>
+    <t>Messena</t>
+  </si>
+  <si>
+    <t>I've put in the Boeotian Erythrae, but how certain are we of this?</t>
+  </si>
+  <si>
+    <t>Erythrae</t>
+  </si>
+  <si>
+    <t>Astypalaia</t>
+  </si>
+  <si>
+    <t>Mysia</t>
+  </si>
+  <si>
+    <t>Phleious</t>
+  </si>
+  <si>
+    <t>Eresos</t>
+  </si>
+  <si>
+    <t>Arcadia</t>
+  </si>
+  <si>
+    <t>Matauria</t>
+  </si>
+  <si>
+    <t>location of Arne disputed and unmapped</t>
+  </si>
+  <si>
+    <t>Greek Megara, not Sicilian Megara, following NP (Bowie)</t>
+  </si>
+  <si>
+    <t>Antissa</t>
+  </si>
+  <si>
+    <t>Katane</t>
+  </si>
+  <si>
+    <t>Soli (Cyprus)</t>
+  </si>
+  <si>
+    <t>Pyrrha</t>
+  </si>
+  <si>
+    <t>Clazomenae</t>
+  </si>
+  <si>
+    <t>Amorgos</t>
+  </si>
+  <si>
+    <t>Salamis</t>
+  </si>
+  <si>
+    <t>Abdera</t>
+  </si>
+  <si>
+    <t>Naxos</t>
+  </si>
+  <si>
+    <t>Siris</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Sicily</t>
+  </si>
+  <si>
+    <t>Pellene</t>
+  </si>
+  <si>
+    <t>(?, asks Cebes about Socrates' verse adaptations of Aesop)</t>
+  </si>
+  <si>
+    <t>Gela</t>
+  </si>
+  <si>
+    <t>("festival of Dionysus"?)</t>
+  </si>
+  <si>
+    <t>Persepolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (as a general or advisor?)</t>
+  </si>
+  <si>
+    <t>unknown location</t>
+  </si>
+  <si>
+    <t>? Don't know how to map "Italy"</t>
+  </si>
+  <si>
+    <t>Tainaron</t>
+  </si>
+  <si>
+    <t>Mantineia</t>
+  </si>
+  <si>
+    <t>Thurii</t>
+  </si>
+  <si>
+    <t>Ikaros</t>
+  </si>
+  <si>
+    <t>Heracleia</t>
+  </si>
+  <si>
+    <t>Thespiai</t>
+  </si>
+  <si>
+    <t>are we sure about this? It's true he wrote an epigram for the Thespians…</t>
+  </si>
+  <si>
+    <t>Akragas</t>
+  </si>
+  <si>
+    <t>Pharsalos</t>
+  </si>
+  <si>
+    <t>Krannon</t>
+  </si>
+  <si>
+    <t>Pallantion</t>
+  </si>
+  <si>
+    <t>Locris Ozolia</t>
+  </si>
+  <si>
+    <t>Izzy said Zancle, the former name of Messena</t>
   </si>
 </sst>
 </file>
@@ -488,7 +874,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,8 +895,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -518,8 +940,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="56">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -530,6 +959,24 @@
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -539,6 +986,24 @@
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -809,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -817,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3124,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -3144,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>127</v>
       </c>
@@ -3161,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>64</v>
       </c>
@@ -3181,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -3201,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -3241,7 +3706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -3281,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -3298,6 +3763,2653 @@
         <v>87</v>
       </c>
       <c r="F121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="2">
+        <f>VLOOKUP(A122,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="2">
+        <f>VLOOKUP(A123,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="2">
+        <f>VLOOKUP(A124,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124">
+        <v>43</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="2">
+        <f>VLOOKUP(A125,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="2">
+        <f>VLOOKUP(A126,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>42</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="2">
+        <f>VLOOKUP(A127,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="C127" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="2">
+        <f>VLOOKUP(A128,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="2">
+        <f>VLOOKUP(A129,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129">
+        <v>39</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="2">
+        <f>VLOOKUP(A130,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130">
+        <v>45</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="2">
+        <f>VLOOKUP(A131,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131">
+        <v>41</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="2">
+        <f>VLOOKUP(A132,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C132" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132">
+        <v>46</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="2">
+        <f>VLOOKUP(A133,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="2">
+        <f>VLOOKUP(A134,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>102</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="2">
+        <f>VLOOKUP(A135,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="2">
+        <f>VLOOKUP(A136,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="C136" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136">
+        <v>57</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="2">
+        <f>VLOOKUP(A137,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="2">
+        <f>VLOOKUP(A138,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138">
+        <v>31</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="2">
+        <f>VLOOKUP(A139,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139">
+        <v>47</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="2">
+        <f>VLOOKUP(A140,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="2">
+        <f>VLOOKUP(A141,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141">
+        <v>54</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" s="2">
+        <f>VLOOKUP(A142,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142">
+        <v>48</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="2">
+        <f>VLOOKUP(A143,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="C143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="2">
+        <f>VLOOKUP(A144,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="2">
+        <f>VLOOKUP(A145,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="2">
+        <f>VLOOKUP(A146,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="2">
+        <f>VLOOKUP(A147,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="2">
+        <f>VLOOKUP(A148,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C148" t="s">
+        <v>221</v>
+      </c>
+      <c r="D148">
+        <v>49</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>114</v>
+      </c>
+      <c r="B149" s="2">
+        <f>VLOOKUP(A149,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="2">
+        <f>VLOOKUP(A150,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="2">
+        <f>VLOOKUP(A151,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C151" t="s">
+        <v>223</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="2">
+        <f>VLOOKUP(A152,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152">
+        <v>31</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="2">
+        <f>VLOOKUP(A153,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="2">
+        <f>VLOOKUP(A154,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C154" t="s">
+        <v>92</v>
+      </c>
+      <c r="D154">
+        <v>36</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="2">
+        <f>VLOOKUP(A155,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C155" t="s">
+        <v>224</v>
+      </c>
+      <c r="D155">
+        <v>51</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2">
+        <f>VLOOKUP(A156,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C156" t="s">
+        <v>192</v>
+      </c>
+      <c r="D156">
+        <v>52</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="2">
+        <f>VLOOKUP(A157,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C157" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="2">
+        <f>VLOOKUP(A158,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C158" t="s">
+        <v>76</v>
+      </c>
+      <c r="D158">
+        <v>17</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="2">
+        <f>VLOOKUP(A159,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>127</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="2">
+        <f>VLOOKUP(A160,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>128</v>
+      </c>
+      <c r="C160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160">
+        <v>20</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="2">
+        <f>VLOOKUP(A161,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C161" t="s">
+        <v>226</v>
+      </c>
+      <c r="D161">
+        <v>55</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>171</v>
+      </c>
+      <c r="B162" s="2">
+        <f>VLOOKUP(A162,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="C162" t="s">
+        <v>136</v>
+      </c>
+      <c r="D162">
+        <v>38</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163" s="2">
+        <f>VLOOKUP(A163,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" s="2">
+        <f>VLOOKUP(A164,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="C164" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164">
+        <v>56</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="2">
+        <f>VLOOKUP(A165,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>133</v>
+      </c>
+      <c r="C165" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165">
+        <v>42</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="2">
+        <f>VLOOKUP(A166,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>134</v>
+      </c>
+      <c r="C166" t="s">
+        <v>115</v>
+      </c>
+      <c r="D166">
+        <v>41</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="2">
+        <f>VLOOKUP(A167,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C167" t="s">
+        <v>220</v>
+      </c>
+      <c r="D167">
+        <v>46</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" s="2">
+        <f>VLOOKUP(A168,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="2">
+        <f>VLOOKUP(A169,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="2">
+        <f>VLOOKUP(A170,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C170" t="s">
+        <v>46</v>
+      </c>
+      <c r="D170">
+        <v>23</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" s="2">
+        <f>VLOOKUP(A171,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C171" t="s">
+        <v>229</v>
+      </c>
+      <c r="D171">
+        <v>58</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" s="2">
+        <f>VLOOKUP(A172,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>139</v>
+      </c>
+      <c r="C172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172">
+        <v>17</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="2">
+        <f>VLOOKUP(A173,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>141</v>
+      </c>
+      <c r="C173" t="s">
+        <v>217</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B174" s="2">
+        <f>VLOOKUP(A174,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>141</v>
+      </c>
+      <c r="C174" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174">
+        <v>59</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="2">
+        <f>VLOOKUP(A175,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C175" t="s">
+        <v>193</v>
+      </c>
+      <c r="D175">
+        <v>60</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176" s="2">
+        <f>VLOOKUP(A176,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="C176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176">
+        <v>17</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="2">
+        <f>VLOOKUP(A177,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C177" t="s">
+        <v>194</v>
+      </c>
+      <c r="D177">
+        <v>61</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178" s="2">
+        <f>VLOOKUP(A178,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="C178" t="s">
+        <v>74</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="2">
+        <f>VLOOKUP(A179,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="2">
+        <f>VLOOKUP(A180,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="2">
+        <f>VLOOKUP(A181,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>146</v>
+      </c>
+      <c r="C181" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="2">
+        <f>VLOOKUP(A182,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" s="2">
+        <v>148</v>
+      </c>
+      <c r="C183" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>142</v>
+      </c>
+      <c r="B184" s="2">
+        <f>VLOOKUP(A184,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C184" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184">
+        <v>39</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185" s="2">
+        <f>VLOOKUP(A185,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C185" t="s">
+        <v>191</v>
+      </c>
+      <c r="D185">
+        <v>48</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="2">
+        <f>VLOOKUP(A186,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="C186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186">
+        <v>21</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>176</v>
+      </c>
+      <c r="B187" s="2">
+        <f>VLOOKUP(A187,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="C187" t="s">
+        <v>234</v>
+      </c>
+      <c r="D187">
+        <v>63</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" s="2">
+        <f>VLOOKUP(A188,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C188" t="s">
+        <v>233</v>
+      </c>
+      <c r="D188">
+        <v>64</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>137</v>
+      </c>
+      <c r="B189" s="2">
+        <f>VLOOKUP(A189,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="C189" t="s">
+        <v>235</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="G189" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="2">
+        <f>VLOOKUP(A190,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C190" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="2">
+        <f>VLOOKUP(A191,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="C191" t="s">
+        <v>239</v>
+      </c>
+      <c r="D191">
+        <v>65</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" s="2">
+        <f>VLOOKUP(A192,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" s="2">
+        <f>VLOOKUP(A193,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>142</v>
+      </c>
+      <c r="B194" s="2">
+        <f>VLOOKUP(A194,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C194" t="s">
+        <v>111</v>
+      </c>
+      <c r="D194">
+        <v>40</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>142</v>
+      </c>
+      <c r="B195" s="2">
+        <f>VLOOKUP(A195,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C195" t="s">
+        <v>240</v>
+      </c>
+      <c r="D195">
+        <v>66</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="2">
+        <f>VLOOKUP(A196,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C196" t="s">
+        <v>74</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>142</v>
+      </c>
+      <c r="B197" s="2">
+        <f>VLOOKUP(A197,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C197" t="s">
+        <v>241</v>
+      </c>
+      <c r="D197">
+        <v>67</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>143</v>
+      </c>
+      <c r="B198" s="2">
+        <f>VLOOKUP(A198,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C198" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198">
+        <v>48</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>143</v>
+      </c>
+      <c r="B199" s="2">
+        <f>VLOOKUP(A199,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C199" t="s">
+        <v>242</v>
+      </c>
+      <c r="D199" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" s="2">
+        <f>VLOOKUP(A200,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C200" t="s">
+        <v>243</v>
+      </c>
+      <c r="D200">
+        <v>68</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="G200" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>143</v>
+      </c>
+      <c r="B201" s="2">
+        <f>VLOOKUP(A201,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C201" t="s">
+        <v>61</v>
+      </c>
+      <c r="D201">
+        <v>19</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>143</v>
+      </c>
+      <c r="B202" s="2">
+        <f>VLOOKUP(A202,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C202" t="s">
+        <v>252</v>
+      </c>
+      <c r="D202">
+        <v>69</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" s="2">
+        <f>VLOOKUP(A203,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>145</v>
+      </c>
+      <c r="B204" s="2">
+        <f>VLOOKUP(A204,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C204" t="s">
+        <v>56</v>
+      </c>
+      <c r="D204">
+        <v>30</v>
+      </c>
+      <c r="F204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>145</v>
+      </c>
+      <c r="B205" s="2">
+        <f>VLOOKUP(A205,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" s="2">
+        <f>VLOOKUP(A206,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>145</v>
+      </c>
+      <c r="B207" s="2">
+        <f>VLOOKUP(A207,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C207" t="s">
+        <v>74</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>145</v>
+      </c>
+      <c r="B208" s="2">
+        <f>VLOOKUP(A208,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>253</v>
+      </c>
+      <c r="D208">
+        <v>70</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>152</v>
+      </c>
+      <c r="B209" s="2">
+        <f>VLOOKUP(A209,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>9</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>101</v>
+      </c>
+      <c r="B210" s="2">
+        <f>VLOOKUP(A210,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>101</v>
+      </c>
+      <c r="B211" s="2">
+        <f>VLOOKUP(A211,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C211" t="s">
+        <v>244</v>
+      </c>
+      <c r="D211">
+        <v>71</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="2">
+        <f>VLOOKUP(A212,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C212" t="s">
+        <v>136</v>
+      </c>
+      <c r="D212">
+        <v>38</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>153</v>
+      </c>
+      <c r="B213" s="2">
+        <f>VLOOKUP(A213,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="C213" t="s">
+        <v>254</v>
+      </c>
+      <c r="D213">
+        <v>72</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>154</v>
+      </c>
+      <c r="B214" s="2">
+        <f>VLOOKUP(A214,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="C214" t="s">
+        <v>56</v>
+      </c>
+      <c r="D214">
+        <v>30</v>
+      </c>
+      <c r="F214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="2">
+        <f>VLOOKUP(A215,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="2">
+        <f>VLOOKUP(A216,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+      <c r="G216" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>156</v>
+      </c>
+      <c r="B217" s="2">
+        <f>VLOOKUP(A217,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="C217" t="s">
+        <v>255</v>
+      </c>
+      <c r="D217">
+        <v>73</v>
+      </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="G217" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>157</v>
+      </c>
+      <c r="B218" s="2">
+        <f>VLOOKUP(A218,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="C218" t="s">
+        <v>256</v>
+      </c>
+      <c r="D218">
+        <v>74</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>158</v>
+      </c>
+      <c r="B219" s="2">
+        <f>VLOOKUP(A219,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C219" t="s">
+        <v>236</v>
+      </c>
+      <c r="D219">
+        <v>75</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>159</v>
+      </c>
+      <c r="B220" s="2">
+        <f>VLOOKUP(A220,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C220" t="s">
+        <v>115</v>
+      </c>
+      <c r="D220">
+        <v>41</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>114</v>
+      </c>
+      <c r="B221" s="2">
+        <f>VLOOKUP(A221,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>161</v>
+      </c>
+      <c r="B222" s="2">
+        <f>VLOOKUP(A222,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="2">
+        <f>VLOOKUP(A223,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="2">
+        <f>VLOOKUP(A224,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>167</v>
+      </c>
+      <c r="B225" s="2">
+        <f>VLOOKUP(A225,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C225" t="s">
+        <v>257</v>
+      </c>
+      <c r="D225">
+        <v>76</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>170</v>
+      </c>
+      <c r="B226" s="2">
+        <f>VLOOKUP(A226,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>171</v>
+      </c>
+      <c r="B227" s="2">
+        <f>VLOOKUP(A227,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="C227" t="s">
+        <v>56</v>
+      </c>
+      <c r="D227">
+        <v>30</v>
+      </c>
+      <c r="F227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>171</v>
+      </c>
+      <c r="B228" s="2">
+        <f>VLOOKUP(A228,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="C228" t="s">
+        <v>74</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>171</v>
+      </c>
+      <c r="B229" s="2">
+        <f>VLOOKUP(A229,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="C229" t="s">
+        <v>228</v>
+      </c>
+      <c r="D229">
+        <v>54</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+      <c r="G229" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>172</v>
+      </c>
+      <c r="B230" s="2">
+        <f>VLOOKUP(A230,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="C230" t="s">
+        <v>243</v>
+      </c>
+      <c r="D230">
+        <v>68</v>
+      </c>
+      <c r="F230">
+        <v>3</v>
+      </c>
+      <c r="G230" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>174</v>
+      </c>
+      <c r="B231" s="2">
+        <f>VLOOKUP(A231,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>134</v>
+      </c>
+      <c r="C231" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231">
+        <v>77</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>175</v>
+      </c>
+      <c r="B232" s="2">
+        <f>VLOOKUP(A232,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>175</v>
+      </c>
+      <c r="B233" s="2">
+        <f>VLOOKUP(A233,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C233" t="s">
+        <v>77</v>
+      </c>
+      <c r="D233">
+        <v>18</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>175</v>
+      </c>
+      <c r="B234" s="2">
+        <f>VLOOKUP(A234,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C234" t="s">
+        <v>74</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>175</v>
+      </c>
+      <c r="B235" s="2">
+        <f>VLOOKUP(A235,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C235" t="s">
+        <v>246</v>
+      </c>
+      <c r="D235">
+        <v>78</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>175</v>
+      </c>
+      <c r="B236" s="2">
+        <f>VLOOKUP(A236,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C236" t="s">
+        <v>259</v>
+      </c>
+      <c r="D236">
+        <v>79</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>175</v>
+      </c>
+      <c r="B237" s="2">
+        <f>VLOOKUP(A237,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C237" t="s">
+        <v>260</v>
+      </c>
+      <c r="D237">
+        <v>80</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>175</v>
+      </c>
+      <c r="B238" s="2">
+        <f>VLOOKUP(A238,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C238" t="s">
+        <v>261</v>
+      </c>
+      <c r="D238">
+        <v>81</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="42">
+      <c r="A239" t="s">
+        <v>176</v>
+      </c>
+      <c r="B239" s="2">
+        <f>VLOOKUP(A239,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D239">
+        <v>26</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>176</v>
+      </c>
+      <c r="B240" s="2">
+        <v>136</v>
+      </c>
+      <c r="C240" t="s">
+        <v>234</v>
+      </c>
+      <c r="D240">
+        <v>63</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" s="2">
+        <f>VLOOKUP(A241,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C241" t="s">
+        <v>238</v>
+      </c>
+      <c r="D241">
+        <v>82</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>178</v>
+      </c>
+      <c r="B242" s="2">
+        <f>VLOOKUP(A242,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C242" t="s">
+        <v>262</v>
+      </c>
+      <c r="D242">
+        <v>83</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>178</v>
+      </c>
+      <c r="B243" s="2">
+        <f>VLOOKUP(A243,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C243" t="s">
+        <v>263</v>
+      </c>
+      <c r="D243">
+        <v>84</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>179</v>
+      </c>
+      <c r="B244" s="2">
+        <f>VLOOKUP(A244,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>139</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>181</v>
+      </c>
+      <c r="B245" s="2">
+        <f>VLOOKUP(A245,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>141</v>
+      </c>
+      <c r="C245" t="s">
+        <v>74</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>182</v>
+      </c>
+      <c r="B246" s="2">
+        <f>VLOOKUP(A246,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C246" t="s">
+        <v>74</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>182</v>
+      </c>
+      <c r="B247" s="2">
+        <f>VLOOKUP(A247,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C247" t="s">
+        <v>136</v>
+      </c>
+      <c r="D247">
+        <v>38</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>182</v>
+      </c>
+      <c r="B248" s="2">
+        <f>VLOOKUP(A248,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C248" t="s">
+        <v>228</v>
+      </c>
+      <c r="D248">
+        <v>54</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>184</v>
+      </c>
+      <c r="B249" s="2">
+        <f>VLOOKUP(A249,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+      <c r="D249">
+        <v>85</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>185</v>
+      </c>
+      <c r="B250" s="2">
+        <f>VLOOKUP(A250,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="C250" t="s">
+        <v>221</v>
+      </c>
+      <c r="D250">
+        <v>49</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>185</v>
+      </c>
+      <c r="B251" s="2">
+        <f>VLOOKUP(A251,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>145</v>
+      </c>
+      <c r="C251" t="s">
+        <v>74</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>212</v>
+      </c>
+      <c r="B252" s="2">
+        <f>VLOOKUP(A252,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C252" t="s">
+        <v>221</v>
+      </c>
+      <c r="D252">
+        <v>49</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+      <c r="G252" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>212</v>
+      </c>
+      <c r="B253" s="2">
+        <f>VLOOKUP(A253,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C253" t="s">
+        <v>233</v>
+      </c>
+      <c r="D253">
+        <v>64</v>
+      </c>
+      <c r="F253">
         <v>3</v>
       </c>
     </row>
@@ -3458,4 +6570,1846 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <f t="shared" ref="B2:B34" si="0">B1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="42">
+      <c r="A26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28">
+      <c r="A43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="6">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection sqref="A1:B137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>181</v>
+      </c>
+      <c r="B125" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>183</v>
+      </c>
+      <c r="B128" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B131" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="2">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>